--- a/Database normaliseren.xlsx
+++ b/Database normaliseren.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teun\School\MED Leerjaar 2 Periode_05\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorri\Documents\GitHub\Groep1-Barroc-it\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
   <si>
     <t xml:space="preserve">CustomerID </t>
   </si>
@@ -131,9 +132,6 @@
     <t>InvoiceID</t>
   </si>
   <si>
-    <t>ApointmentID</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -146,9 +144,6 @@
     <t xml:space="preserve">app_Description </t>
   </si>
   <si>
-    <t xml:space="preserve">app_InputDate </t>
-  </si>
-  <si>
     <t>app_LastContactDate</t>
   </si>
   <si>
@@ -158,18 +153,12 @@
     <t>pr_Software</t>
   </si>
   <si>
-    <t>pr_Operating System</t>
-  </si>
-  <si>
     <t xml:space="preserve">pr_Status </t>
   </si>
   <si>
     <t xml:space="preserve">pr_Description </t>
   </si>
   <si>
-    <t>pr_Active</t>
-  </si>
-  <si>
     <t xml:space="preserve">app_AppointmentDate </t>
   </si>
   <si>
@@ -179,26 +168,161 @@
     <t xml:space="preserve">inv_EndDate </t>
   </si>
   <si>
-    <t xml:space="preserve">inv_Activity1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv_Activity2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv_Price1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv_Price2 </t>
-  </si>
-  <si>
     <t>CustomerID</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>pr_Limit</t>
+  </si>
+  <si>
+    <t>tbl_projects</t>
+  </si>
+  <si>
+    <t>tbl_appointments</t>
+  </si>
+  <si>
+    <t>tbl_invoices</t>
+  </si>
+  <si>
+    <t>tbl_users</t>
+  </si>
+  <si>
+    <t>tbl_customers</t>
+  </si>
+  <si>
+    <t>pr_Applications</t>
+  </si>
+  <si>
+    <t>Open_projects</t>
+  </si>
+  <si>
+    <t>AppointmentID</t>
+  </si>
+  <si>
+    <t>pr_OperatingSystem</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>inv_Activity</t>
+  </si>
+  <si>
+    <t>inv_Price</t>
+  </si>
+  <si>
+    <t>tbl_invoice_rules</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>role_id</t>
+  </si>
+  <si>
+    <t>permissions</t>
+  </si>
+  <si>
+    <t>naam</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Admin rol is bedoeld voor lblablablabla</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De sales rol is fdljfsdkj fsdlfjk sdjkl </t>
+  </si>
+  <si>
+    <t>canCrudInvoices</t>
+  </si>
+  <si>
+    <t>blablablbalblablblaba</t>
+  </si>
+  <si>
+    <t>canCrudCustomer</t>
+  </si>
+  <si>
+    <t>canSendnvoice</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>permission_id</t>
+  </si>
+  <si>
+    <t>roles_permissions</t>
+  </si>
+  <si>
+    <t>$_SESSION['user'] = new User()</t>
+  </si>
+  <si>
+    <t>if ($_SESSION['user']-&gt;canCrudInvoice())</t>
+  </si>
+  <si>
+    <t>invoice.php els</t>
+  </si>
+  <si>
+    <t>public function canCrudINvoice()</t>
+  </si>
+  <si>
+    <t>$data = $db-&gt;query()</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>achive_at</t>
+  </si>
+  <si>
+    <t>archive_at</t>
+  </si>
+  <si>
+    <t>tbl_roles</t>
+  </si>
+  <si>
+    <t>tbl_role_permissions</t>
+  </si>
+  <si>
+    <t>tbl_permissions</t>
+  </si>
+  <si>
+    <t>roleID</t>
+  </si>
+  <si>
+    <t>permissionID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>voor extra:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +338,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +368,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -231,14 +376,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -519,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,254 +697,642 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="8" max="28" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="L22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D30" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
+      <c r="D34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D39" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D40" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D41" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D46" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D47" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D48" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database normaliseren.xlsx
+++ b/Database normaliseren.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorri\Documents\GitHub\Groep1-Barroc-it\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teun\School\MED Leerjaar 2 Periode_05\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,9 @@
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t xml:space="preserve">CustomerID </t>
   </si>
@@ -316,6 +319,12 @@
   </si>
   <si>
     <t>voor extra:</t>
+  </si>
+  <si>
+    <t>paid_invoices</t>
+  </si>
+  <si>
+    <t>remaining_invoices</t>
   </si>
 </sst>
 </file>
@@ -410,8 +419,36 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -688,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,6 +866,9 @@
       <c r="F10" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -936,7 +976,7 @@
       <c r="J20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -944,6 +984,9 @@
       <c r="A21" t="s">
         <v>18</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>67</v>
       </c>
@@ -960,6 +1003,9 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>35</v>
@@ -1172,7 +1218,7 @@
   <dimension ref="A2:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Database normaliseren.xlsx
+++ b/Database normaliseren.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teun\School\MED Leerjaar 2 Periode_05\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teun\Documents\GitHub\Groep1-Barroc-it\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
   <si>
     <t xml:space="preserve">CustomerID </t>
   </si>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -415,6 +415,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -723,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L53"/>
+  <dimension ref="A2:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,12 +742,8 @@
     <col min="8" max="28" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -759,11 +756,8 @@
       <c r="H3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -776,11 +770,8 @@
       <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -793,11 +784,8 @@
       <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -810,11 +798,8 @@
       <c r="H6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -828,7 +813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -842,7 +827,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -856,7 +841,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -870,7 +855,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -882,7 +867,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -890,7 +875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -898,7 +883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -906,7 +891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -914,7 +899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -922,7 +907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -931,7 +916,7 @@
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -939,8 +924,9 @@
         <v>59</v>
       </c>
       <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -953,14 +939,8 @@
       <c r="H19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -973,34 +953,22 @@
       <c r="H20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>67</v>
+      <c r="F21" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="H21" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1013,38 +981,34 @@
       <c r="H22" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="L22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
+      <c r="F24" s="10"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1052,7 +1016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1060,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1068,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1076,7 +1040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1084,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1215,21 +1179,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C34"/>
+  <dimension ref="A2:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>67</v>
       </c>
@@ -1239,29 +1207,48 @@
       <c r="C3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K3" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K4" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1272,7 +1259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>75</v>
       </c>
@@ -1280,27 +1267,27 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>67</v>
       </c>
@@ -1308,7 +1295,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
@@ -1316,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
@@ -1324,51 +1311,84 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K20" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K23" s="9"/>
+      <c r="M23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K24" s="9"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>85</v>
       </c>
